--- a/WinStock_project/manage/0816/winstock_개발이슈.xlsx
+++ b/WinStock_project/manage/0816/winstock_개발이슈.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\mandleda\WinStock_project\manage\0816\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C712826-CFEF-44DA-ABD3-CCFE201A37CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
   <si>
     <t>개발구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -396,15 +402,66 @@
     <t>소스코드 참조</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>조건검색 조회 실패시 조건검색 목록 update 딜레이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택 종목 매도시 계좌번호 오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일부 주석 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일부 주석 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calc_per</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리턴값 제대로 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return float(ret)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyThread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> if len(price) != 0: 제거 
+스트림 데이터 받아올때 처리함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnReceiveChejanData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체결 잔고 데이터 받을때 
+state 별 매도가격 update
+그리고 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,7 +521,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -480,6 +537,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,7 +589,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -572,11 +635,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,7 +707,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -671,9 +740,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -706,6 +792,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -881,16 +984,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="3" width="15" customWidth="1"/>
@@ -901,7 +1004,7 @@
     <col min="8" max="8" width="119.125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
@@ -924,18 +1027,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="45" customHeight="1">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-    </row>
-    <row r="3" spans="2:9" ht="148.5">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="2:9" ht="148.5" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>15</v>
@@ -955,7 +1058,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" ht="66">
+    <row r="4" spans="2:9" ht="66" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
@@ -975,7 +1078,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="33">
+    <row r="5" spans="2:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -995,7 +1098,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="2:9" ht="49.5">
+    <row r="6" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>19</v>
@@ -1015,7 +1118,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" ht="33">
+    <row r="7" spans="2:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
         <v>19</v>
@@ -1034,7 +1137,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="181.5">
+    <row r="8" spans="2:9" ht="181.5" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
         <v>11</v>
@@ -1053,7 +1156,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="99">
+    <row r="9" spans="2:9" ht="99" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
         <v>11</v>
@@ -1072,7 +1175,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="66">
+    <row r="10" spans="2:9" ht="66" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
         <v>11</v>
@@ -1091,7 +1194,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="33">
+    <row r="11" spans="2:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
         <v>11</v>
@@ -1110,7 +1213,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="66">
+    <row r="12" spans="2:9" ht="66" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
         <v>11</v>
@@ -1129,7 +1232,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="49.5">
+    <row r="13" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
         <v>11</v>
@@ -1148,7 +1251,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
         <v>11</v>
@@ -1167,7 +1270,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="33">
+    <row r="15" spans="2:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
         <v>11</v>
@@ -1186,7 +1289,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -1195,7 +1298,7 @@
       <c r="G16" s="13"/>
       <c r="H16" s="14"/>
     </row>
-    <row r="17" spans="2:8" ht="214.5">
+    <row r="17" spans="2:8" ht="214.5" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>55</v>
       </c>
@@ -1214,7 +1317,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
         <v>51</v>
@@ -1233,7 +1336,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="66">
+    <row r="19" spans="2:8" ht="66" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
         <v>51</v>
@@ -1252,7 +1355,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="99">
+    <row r="20" spans="2:8" ht="99" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
         <v>51</v>
@@ -1271,7 +1374,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="165">
+    <row r="21" spans="2:8" ht="165" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
         <v>63</v>
@@ -1290,7 +1393,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="99">
+    <row r="22" spans="2:8" ht="99" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
         <v>51</v>
@@ -1309,9 +1412,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="148.5">
+    <row r="23" spans="2:8" ht="148.5" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -1330,79 +1433,141 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="8">
+        <v>44790</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="8">
+        <v>44790</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="8">
+        <v>44790</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="8">
+        <v>44790</v>
+      </c>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="8">
+        <v>44790</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="8">
+        <v>44790</v>
+      </c>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="8">
+        <v>44790</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="8">
+        <v>44790</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B30" s="8">
+        <v>44790</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="8">
+        <v>44790</v>
+      </c>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="2"/>
+    <row r="31" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B31" s="8">
+        <v>44790</v>
+      </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="8">
+        <v>44790</v>
+      </c>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1411,7 +1576,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1420,7 +1585,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1429,7 +1594,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1438,7 +1603,7 @@
       <c r="G35" s="2"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1447,7 +1612,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1456,7 +1621,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1465,7 +1630,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1474,7 +1639,7 @@
       <c r="G39" s="2"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1483,7 +1648,7 @@
       <c r="G40" s="2"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1492,7 +1657,7 @@
       <c r="G41" s="2"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1501,7 +1666,7 @@
       <c r="G42" s="2"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1510,7 +1675,7 @@
       <c r="G43" s="2"/>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1519,7 +1684,7 @@
       <c r="G44" s="2"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1528,7 +1693,7 @@
       <c r="G45" s="2"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1537,7 +1702,7 @@
       <c r="G46" s="2"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -1546,7 +1711,7 @@
       <c r="G47" s="2"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -1555,7 +1720,7 @@
       <c r="G48" s="2"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -1564,7 +1729,7 @@
       <c r="G49" s="2"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -1573,7 +1738,7 @@
       <c r="G50" s="2"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -1582,7 +1747,7 @@
       <c r="G51" s="2"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="2:8">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -1591,7 +1756,7 @@
       <c r="G52" s="2"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="2:8">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -1600,7 +1765,7 @@
       <c r="G53" s="2"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="2:8">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -1609,7 +1774,7 @@
       <c r="G54" s="2"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="2:8">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -1618,7 +1783,7 @@
       <c r="G55" s="2"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="2:8">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -1627,7 +1792,7 @@
       <c r="G56" s="2"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="2:8">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -1636,7 +1801,7 @@
       <c r="G57" s="2"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="2:8">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -1645,7 +1810,7 @@
       <c r="G58" s="2"/>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="2:8">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -1654,7 +1819,7 @@
       <c r="G59" s="2"/>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="2:8">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -1663,7 +1828,7 @@
       <c r="G60" s="2"/>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="2:8">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -1672,7 +1837,7 @@
       <c r="G61" s="2"/>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="2:8">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -1681,7 +1846,7 @@
       <c r="G62" s="2"/>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="2:8">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -1690,7 +1855,7 @@
       <c r="G63" s="2"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="2:8">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -1699,7 +1864,7 @@
       <c r="G64" s="2"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="2:8">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -1708,7 +1873,7 @@
       <c r="G65" s="2"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="2:8">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -1717,7 +1882,7 @@
       <c r="G66" s="2"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="2:8">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -1726,7 +1891,7 @@
       <c r="G67" s="2"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="2:8">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -1735,7 +1900,7 @@
       <c r="G68" s="2"/>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="2:8">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -1744,7 +1909,7 @@
       <c r="G69" s="2"/>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="2:8">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -1753,7 +1918,7 @@
       <c r="G70" s="2"/>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="2:8">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -1762,7 +1927,7 @@
       <c r="G71" s="2"/>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="2:8">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -1771,7 +1936,7 @@
       <c r="G72" s="2"/>
       <c r="H72" s="4"/>
     </row>
-    <row r="73" spans="2:8">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -1780,7 +1945,7 @@
       <c r="G73" s="2"/>
       <c r="H73" s="4"/>
     </row>
-    <row r="74" spans="2:8">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -1789,7 +1954,7 @@
       <c r="G74" s="2"/>
       <c r="H74" s="4"/>
     </row>
-    <row r="75" spans="2:8">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -1798,7 +1963,7 @@
       <c r="G75" s="2"/>
       <c r="H75" s="4"/>
     </row>
-    <row r="76" spans="2:8">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -1807,7 +1972,7 @@
       <c r="G76" s="2"/>
       <c r="H76" s="4"/>
     </row>
-    <row r="77" spans="2:8">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -1816,7 +1981,7 @@
       <c r="G77" s="2"/>
       <c r="H77" s="4"/>
     </row>
-    <row r="78" spans="2:8">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -1825,7 +1990,7 @@
       <c r="G78" s="2"/>
       <c r="H78" s="4"/>
     </row>
-    <row r="79" spans="2:8">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -1834,7 +1999,7 @@
       <c r="G79" s="2"/>
       <c r="H79" s="4"/>
     </row>
-    <row r="80" spans="2:8">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -1843,7 +2008,7 @@
       <c r="G80" s="2"/>
       <c r="H80" s="4"/>
     </row>
-    <row r="81" spans="2:8">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -1852,7 +2017,7 @@
       <c r="G81" s="2"/>
       <c r="H81" s="4"/>
     </row>
-    <row r="82" spans="2:8">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -1861,7 +2026,7 @@
       <c r="G82" s="2"/>
       <c r="H82" s="4"/>
     </row>
-    <row r="83" spans="2:8">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -1870,7 +2035,7 @@
       <c r="G83" s="2"/>
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="2:8">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -1879,7 +2044,7 @@
       <c r="G84" s="2"/>
       <c r="H84" s="4"/>
     </row>
-    <row r="85" spans="2:8">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -1888,7 +2053,7 @@
       <c r="G85" s="2"/>
       <c r="H85" s="4"/>
     </row>
-    <row r="86" spans="2:8">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -1897,7 +2062,7 @@
       <c r="G86" s="2"/>
       <c r="H86" s="4"/>
     </row>
-    <row r="87" spans="2:8">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -1906,7 +2071,7 @@
       <c r="G87" s="2"/>
       <c r="H87" s="4"/>
     </row>
-    <row r="88" spans="2:8">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -1915,7 +2080,7 @@
       <c r="G88" s="2"/>
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="2:8">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -1924,7 +2089,7 @@
       <c r="G89" s="2"/>
       <c r="H89" s="4"/>
     </row>
-    <row r="90" spans="2:8">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -1933,7 +2098,7 @@
       <c r="G90" s="2"/>
       <c r="H90" s="4"/>
     </row>
-    <row r="91" spans="2:8">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -1942,7 +2107,7 @@
       <c r="G91" s="2"/>
       <c r="H91" s="4"/>
     </row>
-    <row r="92" spans="2:8">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -1951,7 +2116,7 @@
       <c r="G92" s="2"/>
       <c r="H92" s="4"/>
     </row>
-    <row r="93" spans="2:8">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -1960,7 +2125,7 @@
       <c r="G93" s="2"/>
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="2:8">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -1969,7 +2134,7 @@
       <c r="G94" s="2"/>
       <c r="H94" s="4"/>
     </row>
-    <row r="95" spans="2:8">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -1978,7 +2143,7 @@
       <c r="G95" s="2"/>
       <c r="H95" s="4"/>
     </row>
-    <row r="96" spans="2:8">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -1987,7 +2152,7 @@
       <c r="G96" s="2"/>
       <c r="H96" s="4"/>
     </row>
-    <row r="97" spans="2:8">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -1996,7 +2161,7 @@
       <c r="G97" s="2"/>
       <c r="H97" s="4"/>
     </row>
-    <row r="98" spans="2:8">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -2005,7 +2170,7 @@
       <c r="G98" s="2"/>
       <c r="H98" s="4"/>
     </row>
-    <row r="99" spans="2:8">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -2014,7 +2179,7 @@
       <c r="G99" s="2"/>
       <c r="H99" s="4"/>
     </row>
-    <row r="100" spans="2:8">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -2023,7 +2188,7 @@
       <c r="G100" s="2"/>
       <c r="H100" s="4"/>
     </row>
-    <row r="101" spans="2:8">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -2032,7 +2197,7 @@
       <c r="G101" s="2"/>
       <c r="H101" s="4"/>
     </row>
-    <row r="102" spans="2:8">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -2041,7 +2206,7 @@
       <c r="G102" s="2"/>
       <c r="H102" s="4"/>
     </row>
-    <row r="103" spans="2:8">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -2050,7 +2215,7 @@
       <c r="G103" s="2"/>
       <c r="H103" s="4"/>
     </row>
-    <row r="104" spans="2:8">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -2059,7 +2224,7 @@
       <c r="G104" s="2"/>
       <c r="H104" s="4"/>
     </row>
-    <row r="105" spans="2:8">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -2068,7 +2233,7 @@
       <c r="G105" s="2"/>
       <c r="H105" s="4"/>
     </row>
-    <row r="106" spans="2:8">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -2077,7 +2242,7 @@
       <c r="G106" s="2"/>
       <c r="H106" s="4"/>
     </row>
-    <row r="107" spans="2:8">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -2086,7 +2251,7 @@
       <c r="G107" s="2"/>
       <c r="H107" s="4"/>
     </row>
-    <row r="108" spans="2:8">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -2095,7 +2260,7 @@
       <c r="G108" s="2"/>
       <c r="H108" s="4"/>
     </row>
-    <row r="109" spans="2:8">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -2104,7 +2269,7 @@
       <c r="G109" s="2"/>
       <c r="H109" s="4"/>
     </row>
-    <row r="110" spans="2:8">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -2113,7 +2278,7 @@
       <c r="G110" s="2"/>
       <c r="H110" s="4"/>
     </row>
-    <row r="111" spans="2:8">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -2122,7 +2287,7 @@
       <c r="G111" s="2"/>
       <c r="H111" s="4"/>
     </row>
-    <row r="112" spans="2:8">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -2131,7 +2296,7 @@
       <c r="G112" s="2"/>
       <c r="H112" s="4"/>
     </row>
-    <row r="113" spans="2:8">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -2140,7 +2305,7 @@
       <c r="G113" s="2"/>
       <c r="H113" s="4"/>
     </row>
-    <row r="114" spans="2:8">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -2149,7 +2314,7 @@
       <c r="G114" s="2"/>
       <c r="H114" s="4"/>
     </row>
-    <row r="115" spans="2:8">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -2158,7 +2323,7 @@
       <c r="G115" s="2"/>
       <c r="H115" s="4"/>
     </row>
-    <row r="116" spans="2:8">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -2167,7 +2332,7 @@
       <c r="G116" s="2"/>
       <c r="H116" s="4"/>
     </row>
-    <row r="117" spans="2:8">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -2176,7 +2341,7 @@
       <c r="G117" s="2"/>
       <c r="H117" s="4"/>
     </row>
-    <row r="118" spans="2:8">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -2185,7 +2350,7 @@
       <c r="G118" s="2"/>
       <c r="H118" s="4"/>
     </row>
-    <row r="119" spans="2:8">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -2194,7 +2359,7 @@
       <c r="G119" s="2"/>
       <c r="H119" s="4"/>
     </row>
-    <row r="120" spans="2:8">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -2203,7 +2368,7 @@
       <c r="G120" s="2"/>
       <c r="H120" s="4"/>
     </row>
-    <row r="121" spans="2:8">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -2212,7 +2377,7 @@
       <c r="G121" s="2"/>
       <c r="H121" s="4"/>
     </row>
-    <row r="122" spans="2:8">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -2221,7 +2386,7 @@
       <c r="G122" s="2"/>
       <c r="H122" s="4"/>
     </row>
-    <row r="123" spans="2:8">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -2230,7 +2395,7 @@
       <c r="G123" s="2"/>
       <c r="H123" s="4"/>
     </row>
-    <row r="124" spans="2:8">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -2239,7 +2404,7 @@
       <c r="G124" s="2"/>
       <c r="H124" s="4"/>
     </row>
-    <row r="125" spans="2:8">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -2248,7 +2413,7 @@
       <c r="G125" s="2"/>
       <c r="H125" s="4"/>
     </row>
-    <row r="126" spans="2:8">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -2257,7 +2422,7 @@
       <c r="G126" s="2"/>
       <c r="H126" s="4"/>
     </row>
-    <row r="127" spans="2:8">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -2266,7 +2431,7 @@
       <c r="G127" s="2"/>
       <c r="H127" s="4"/>
     </row>
-    <row r="128" spans="2:8">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -2275,7 +2440,7 @@
       <c r="G128" s="2"/>
       <c r="H128" s="4"/>
     </row>
-    <row r="129" spans="2:8">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -2284,7 +2449,7 @@
       <c r="G129" s="2"/>
       <c r="H129" s="4"/>
     </row>
-    <row r="130" spans="2:8">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -2293,7 +2458,7 @@
       <c r="G130" s="2"/>
       <c r="H130" s="4"/>
     </row>
-    <row r="131" spans="2:8">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -2302,7 +2467,7 @@
       <c r="G131" s="2"/>
       <c r="H131" s="4"/>
     </row>
-    <row r="132" spans="2:8">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -2311,7 +2476,7 @@
       <c r="G132" s="2"/>
       <c r="H132" s="4"/>
     </row>
-    <row r="133" spans="2:8">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -2320,7 +2485,7 @@
       <c r="G133" s="2"/>
       <c r="H133" s="4"/>
     </row>
-    <row r="134" spans="2:8">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -2329,7 +2494,7 @@
       <c r="G134" s="2"/>
       <c r="H134" s="4"/>
     </row>
-    <row r="135" spans="2:8">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -2338,7 +2503,7 @@
       <c r="G135" s="2"/>
       <c r="H135" s="4"/>
     </row>
-    <row r="136" spans="2:8">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -2347,7 +2512,7 @@
       <c r="G136" s="2"/>
       <c r="H136" s="4"/>
     </row>
-    <row r="137" spans="2:8">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -2356,7 +2521,7 @@
       <c r="G137" s="2"/>
       <c r="H137" s="4"/>
     </row>
-    <row r="138" spans="2:8">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -2365,7 +2530,7 @@
       <c r="G138" s="2"/>
       <c r="H138" s="4"/>
     </row>
-    <row r="139" spans="2:8">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
@@ -2374,7 +2539,7 @@
       <c r="G139" s="2"/>
       <c r="H139" s="4"/>
     </row>
-    <row r="140" spans="2:8">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -2383,7 +2548,7 @@
       <c r="G140" s="2"/>
       <c r="H140" s="4"/>
     </row>
-    <row r="141" spans="2:8">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -2392,7 +2557,7 @@
       <c r="G141" s="2"/>
       <c r="H141" s="4"/>
     </row>
-    <row r="142" spans="2:8">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -2401,7 +2566,7 @@
       <c r="G142" s="2"/>
       <c r="H142" s="4"/>
     </row>
-    <row r="143" spans="2:8">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -2410,7 +2575,7 @@
       <c r="G143" s="2"/>
       <c r="H143" s="4"/>
     </row>
-    <row r="144" spans="2:8">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -2419,7 +2584,7 @@
       <c r="G144" s="2"/>
       <c r="H144" s="4"/>
     </row>
-    <row r="145" spans="2:8">
+    <row r="145" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -2428,7 +2593,7 @@
       <c r="G145" s="2"/>
       <c r="H145" s="4"/>
     </row>
-    <row r="146" spans="2:8">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -2437,7 +2602,7 @@
       <c r="G146" s="2"/>
       <c r="H146" s="4"/>
     </row>
-    <row r="147" spans="2:8">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -2446,7 +2611,7 @@
       <c r="G147" s="2"/>
       <c r="H147" s="4"/>
     </row>
-    <row r="148" spans="2:8">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -2455,7 +2620,7 @@
       <c r="G148" s="2"/>
       <c r="H148" s="4"/>
     </row>
-    <row r="149" spans="2:8">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -2464,7 +2629,7 @@
       <c r="G149" s="2"/>
       <c r="H149" s="4"/>
     </row>
-    <row r="150" spans="2:8">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -2473,7 +2638,7 @@
       <c r="G150" s="2"/>
       <c r="H150" s="4"/>
     </row>
-    <row r="151" spans="2:8">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -2482,7 +2647,7 @@
       <c r="G151" s="2"/>
       <c r="H151" s="4"/>
     </row>
-    <row r="152" spans="2:8">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -2491,7 +2656,7 @@
       <c r="G152" s="2"/>
       <c r="H152" s="4"/>
     </row>
-    <row r="153" spans="2:8">
+    <row r="153" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -2500,7 +2665,7 @@
       <c r="G153" s="2"/>
       <c r="H153" s="4"/>
     </row>
-    <row r="154" spans="2:8">
+    <row r="154" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -2509,7 +2674,7 @@
       <c r="G154" s="2"/>
       <c r="H154" s="4"/>
     </row>
-    <row r="155" spans="2:8">
+    <row r="155" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -2518,7 +2683,7 @@
       <c r="G155" s="2"/>
       <c r="H155" s="4"/>
     </row>
-    <row r="156" spans="2:8">
+    <row r="156" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -2527,7 +2692,7 @@
       <c r="G156" s="2"/>
       <c r="H156" s="4"/>
     </row>
-    <row r="157" spans="2:8">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -2536,7 +2701,7 @@
       <c r="G157" s="2"/>
       <c r="H157" s="4"/>
     </row>
-    <row r="158" spans="2:8">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -2545,7 +2710,7 @@
       <c r="G158" s="2"/>
       <c r="H158" s="4"/>
     </row>
-    <row r="159" spans="2:8">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -2554,7 +2719,7 @@
       <c r="G159" s="2"/>
       <c r="H159" s="4"/>
     </row>
-    <row r="160" spans="2:8">
+    <row r="160" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -2563,7 +2728,7 @@
       <c r="G160" s="2"/>
       <c r="H160" s="4"/>
     </row>
-    <row r="161" spans="2:8">
+    <row r="161" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -2572,7 +2737,7 @@
       <c r="G161" s="2"/>
       <c r="H161" s="4"/>
     </row>
-    <row r="162" spans="2:8">
+    <row r="162" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -2581,7 +2746,7 @@
       <c r="G162" s="2"/>
       <c r="H162" s="4"/>
     </row>
-    <row r="163" spans="2:8">
+    <row r="163" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -2590,7 +2755,7 @@
       <c r="G163" s="2"/>
       <c r="H163" s="4"/>
     </row>
-    <row r="164" spans="2:8">
+    <row r="164" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -2599,7 +2764,7 @@
       <c r="G164" s="2"/>
       <c r="H164" s="4"/>
     </row>
-    <row r="165" spans="2:8">
+    <row r="165" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -2608,7 +2773,7 @@
       <c r="G165" s="2"/>
       <c r="H165" s="4"/>
     </row>
-    <row r="166" spans="2:8">
+    <row r="166" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
@@ -2617,7 +2782,7 @@
       <c r="G166" s="2"/>
       <c r="H166" s="4"/>
     </row>
-    <row r="167" spans="2:8">
+    <row r="167" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
@@ -2626,7 +2791,7 @@
       <c r="G167" s="2"/>
       <c r="H167" s="4"/>
     </row>
-    <row r="168" spans="2:8">
+    <row r="168" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -2635,7 +2800,7 @@
       <c r="G168" s="2"/>
       <c r="H168" s="4"/>
     </row>
-    <row r="169" spans="2:8">
+    <row r="169" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -2644,7 +2809,7 @@
       <c r="G169" s="2"/>
       <c r="H169" s="4"/>
     </row>
-    <row r="170" spans="2:8">
+    <row r="170" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -2653,7 +2818,7 @@
       <c r="G170" s="2"/>
       <c r="H170" s="4"/>
     </row>
-    <row r="171" spans="2:8">
+    <row r="171" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -2662,7 +2827,7 @@
       <c r="G171" s="2"/>
       <c r="H171" s="4"/>
     </row>
-    <row r="172" spans="2:8">
+    <row r="172" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
@@ -2671,7 +2836,7 @@
       <c r="G172" s="2"/>
       <c r="H172" s="4"/>
     </row>
-    <row r="173" spans="2:8">
+    <row r="173" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -2680,7 +2845,7 @@
       <c r="G173" s="2"/>
       <c r="H173" s="4"/>
     </row>
-    <row r="174" spans="2:8">
+    <row r="174" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
@@ -2689,7 +2854,7 @@
       <c r="G174" s="2"/>
       <c r="H174" s="4"/>
     </row>
-    <row r="175" spans="2:8">
+    <row r="175" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
@@ -2698,7 +2863,7 @@
       <c r="G175" s="2"/>
       <c r="H175" s="4"/>
     </row>
-    <row r="176" spans="2:8">
+    <row r="176" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -2707,7 +2872,7 @@
       <c r="G176" s="2"/>
       <c r="H176" s="4"/>
     </row>
-    <row r="177" spans="2:8">
+    <row r="177" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
@@ -2716,7 +2881,7 @@
       <c r="G177" s="2"/>
       <c r="H177" s="4"/>
     </row>
-    <row r="178" spans="2:8">
+    <row r="178" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
@@ -2725,7 +2890,7 @@
       <c r="G178" s="2"/>
       <c r="H178" s="4"/>
     </row>
-    <row r="179" spans="2:8">
+    <row r="179" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -2734,7 +2899,7 @@
       <c r="G179" s="2"/>
       <c r="H179" s="4"/>
     </row>
-    <row r="180" spans="2:8">
+    <row r="180" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
@@ -2743,7 +2908,7 @@
       <c r="G180" s="2"/>
       <c r="H180" s="4"/>
     </row>
-    <row r="181" spans="2:8">
+    <row r="181" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
@@ -2752,7 +2917,7 @@
       <c r="G181" s="2"/>
       <c r="H181" s="4"/>
     </row>
-    <row r="182" spans="2:8">
+    <row r="182" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
@@ -2761,7 +2926,7 @@
       <c r="G182" s="2"/>
       <c r="H182" s="4"/>
     </row>
-    <row r="183" spans="2:8">
+    <row r="183" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
@@ -2770,7 +2935,7 @@
       <c r="G183" s="2"/>
       <c r="H183" s="4"/>
     </row>
-    <row r="184" spans="2:8">
+    <row r="184" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
@@ -2779,7 +2944,7 @@
       <c r="G184" s="2"/>
       <c r="H184" s="4"/>
     </row>
-    <row r="185" spans="2:8">
+    <row r="185" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
@@ -2788,7 +2953,7 @@
       <c r="G185" s="2"/>
       <c r="H185" s="4"/>
     </row>
-    <row r="186" spans="2:8">
+    <row r="186" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
@@ -2797,7 +2962,7 @@
       <c r="G186" s="2"/>
       <c r="H186" s="4"/>
     </row>
-    <row r="187" spans="2:8">
+    <row r="187" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
@@ -2806,7 +2971,7 @@
       <c r="G187" s="2"/>
       <c r="H187" s="4"/>
     </row>
-    <row r="188" spans="2:8">
+    <row r="188" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
@@ -2815,7 +2980,7 @@
       <c r="G188" s="2"/>
       <c r="H188" s="4"/>
     </row>
-    <row r="189" spans="2:8">
+    <row r="189" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
@@ -2824,7 +2989,7 @@
       <c r="G189" s="2"/>
       <c r="H189" s="4"/>
     </row>
-    <row r="190" spans="2:8">
+    <row r="190" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
@@ -2833,7 +2998,7 @@
       <c r="G190" s="2"/>
       <c r="H190" s="4"/>
     </row>
-    <row r="191" spans="2:8">
+    <row r="191" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
@@ -2842,7 +3007,7 @@
       <c r="G191" s="2"/>
       <c r="H191" s="4"/>
     </row>
-    <row r="192" spans="2:8">
+    <row r="192" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
@@ -2851,7 +3016,7 @@
       <c r="G192" s="2"/>
       <c r="H192" s="4"/>
     </row>
-    <row r="193" spans="2:8">
+    <row r="193" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
@@ -2860,7 +3025,7 @@
       <c r="G193" s="2"/>
       <c r="H193" s="4"/>
     </row>
-    <row r="194" spans="2:8">
+    <row r="194" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
@@ -2869,7 +3034,7 @@
       <c r="G194" s="2"/>
       <c r="H194" s="4"/>
     </row>
-    <row r="195" spans="2:8">
+    <row r="195" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
@@ -2889,12 +3054,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2902,12 +3067,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
